--- a/Dokumente/Praesentation/02_Abschlusspraesentation/Arbeitsaufteilung.xlsx
+++ b/Dokumente/Praesentation/02_Abschlusspraesentation/Arbeitsaufteilung.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathias\Documents\GitHub\Augmented_Party_Game\Dokumente\Praesentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>KW</t>
   </si>
@@ -99,13 +94,52 @@
   </si>
   <si>
     <t>Projektsetup, Vuforia Beispiel-Sammlung erstellen und auswerten, Test-Builds</t>
+  </si>
+  <si>
+    <t>Multi-Marker Implementierung Abstand 2er Marker für Level größe</t>
+  </si>
+  <si>
+    <t>Alternativ ansatz Marker als Spielgrenzen</t>
+  </si>
+  <si>
+    <t>Marker Tests</t>
+  </si>
+  <si>
+    <t>Ansatz: Statische Mapgrößen</t>
+  </si>
+  <si>
+    <t>Respawn Implementiert/LebensAnzeige</t>
+  </si>
+  <si>
+    <t>3D Objekt-Marker</t>
+  </si>
+  <si>
+    <t>Oktober</t>
+  </si>
+  <si>
+    <t>Health-Power-Up, Weitere Hindernisse, Abschluss präsi</t>
+  </si>
+  <si>
+    <t>Game Physik verhalten / Bounce</t>
+  </si>
+  <si>
+    <t>Multiplayer-Funktionalität</t>
+  </si>
+  <si>
+    <t>Framework-Tests, Planung</t>
+  </si>
+  <si>
+    <t>Planung</t>
+  </si>
+  <si>
+    <t>Lebensanzeige, Debugging</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,8 +154,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +177,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -206,47 +252,71 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -522,7 +592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,458 +612,549 @@
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="3">
         <v>8</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="1">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="3">
         <v>6</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="1">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="3">
         <v>8</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
         <v>23</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="3">
         <v>15</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7">
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="1">
         <v>24</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="3">
         <v>12</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7">
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="1">
         <v>25</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="3">
         <v>15</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3">
+      <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="F8" s="2">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="1">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="3">
         <v>20</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7">
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>27</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="3">
         <v>10</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7">
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="1">
         <v>28</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7">
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="1">
         <v>29</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7">
+      <c r="D12" s="12"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="1">
         <v>30</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7">
+      <c r="D13" s="12"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="1">
         <v>31</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7">
+      <c r="D14" s="13"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>32</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="3">
         <v>15</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7">
+      <c r="E15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="1">
         <v>33</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="3">
         <v>15</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7">
+      <c r="E16" s="17"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="1">
         <v>34</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="12">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7">
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="1">
         <v>35</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7">
+      <c r="D18" s="13"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="1">
         <v>36</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="3">
         <v>15</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7">
+      <c r="E19" s="18"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="1">
         <v>37</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="3">
         <v>15</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3">
+      <c r="E20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="2">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="1">
         <v>38</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="3">
         <v>15</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7">
+      <c r="E21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="2">
+        <v>30</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="1">
         <v>39</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="3">
         <v>20</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7">
+      <c r="E22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="1">
         <v>40</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="3">
         <v>5</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7">
-        <v>0</v>
+      <c r="E23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="2">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="2">
+        <v>20</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="1">
+        <v>42</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="1">
+        <v>43</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="1">
+        <v>44</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>SUM(D3:D24)</f>
+        <v>194</v>
+      </c>
+      <c r="F33">
+        <f>SUM(F3:F26)</f>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="A1:A2"/>
@@ -1003,12 +1164,6 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
